--- a/data/pca/factorExposure/factorExposure_2019-04-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1311794740077888</v>
+        <v>-0.08038336359558643</v>
       </c>
       <c r="C2">
-        <v>0.01695703540047183</v>
+        <v>0.03115968142926348</v>
       </c>
       <c r="D2">
-        <v>0.0431556651011824</v>
+        <v>0.009200145182270671</v>
       </c>
       <c r="E2">
-        <v>0.09502458851538803</v>
+        <v>-0.03964213568476495</v>
       </c>
       <c r="F2">
-        <v>0.1001495123991381</v>
+        <v>0.1442837153590002</v>
       </c>
       <c r="G2">
-        <v>-0.08735179646309485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.09414216339476873</v>
+      </c>
+      <c r="H2">
+        <v>-0.07292101171068514</v>
+      </c>
+      <c r="I2">
+        <v>-0.01501185291310255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2244722639858381</v>
+        <v>-0.166541710576477</v>
       </c>
       <c r="C3">
-        <v>-0.0796638256330944</v>
+        <v>0.06850946696468072</v>
       </c>
       <c r="D3">
-        <v>-0.02436408571007871</v>
+        <v>-0.04984767672940436</v>
       </c>
       <c r="E3">
-        <v>0.3061454961318528</v>
+        <v>0.0295507483740006</v>
       </c>
       <c r="F3">
-        <v>0.02081671084935073</v>
+        <v>0.3675325373594516</v>
       </c>
       <c r="G3">
-        <v>-0.3269965344968045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.03901180591366079</v>
+      </c>
+      <c r="H3">
+        <v>-0.2890789758270588</v>
+      </c>
+      <c r="I3">
+        <v>-0.129158092988899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09929427236558</v>
+        <v>-0.07490112296585227</v>
       </c>
       <c r="C4">
-        <v>-0.0242900608483089</v>
+        <v>0.02492753529946069</v>
       </c>
       <c r="D4">
-        <v>0.0187299966682818</v>
+        <v>-0.03271082832971003</v>
       </c>
       <c r="E4">
-        <v>0.07489901760014954</v>
+        <v>-0.02939088007687001</v>
       </c>
       <c r="F4">
-        <v>0.05026985841376767</v>
+        <v>0.08781500709885176</v>
       </c>
       <c r="G4">
-        <v>-0.03986160919568291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0387316887838608</v>
+      </c>
+      <c r="H4">
+        <v>-0.03563720603617412</v>
+      </c>
+      <c r="I4">
+        <v>-0.02207276479708759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01773383743419589</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.001330075811604446</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.007677825011032608</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.001938790640878137</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.001146848846994941</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01777707260639609</v>
+      </c>
+      <c r="H6">
+        <v>-0.002417960186342437</v>
+      </c>
+      <c r="I6">
+        <v>0.008954164721730698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04313631967460854</v>
+        <v>-0.03536227535850059</v>
       </c>
       <c r="C7">
-        <v>-0.003741402298661518</v>
+        <v>-0.004737661034930773</v>
       </c>
       <c r="D7">
-        <v>0.03151578495556303</v>
+        <v>-0.0398029018038666</v>
       </c>
       <c r="E7">
-        <v>0.07438217159522803</v>
+        <v>-0.02615096108712945</v>
       </c>
       <c r="F7">
-        <v>-0.03935936202686134</v>
+        <v>0.05955362335027236</v>
       </c>
       <c r="G7">
-        <v>-0.01301159218182298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01236106062808635</v>
+      </c>
+      <c r="H7">
+        <v>-0.05355620939028514</v>
+      </c>
+      <c r="I7">
+        <v>0.0179649253490694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04269152602798434</v>
+        <v>-0.03184354533997793</v>
       </c>
       <c r="C8">
-        <v>-0.03845059866656266</v>
+        <v>0.02800437144871455</v>
       </c>
       <c r="D8">
-        <v>0.001030141732066885</v>
+        <v>-0.0335325457997985</v>
       </c>
       <c r="E8">
-        <v>0.07138077966008718</v>
+        <v>-0.01041543929761482</v>
       </c>
       <c r="F8">
-        <v>0.003941207131425592</v>
+        <v>0.07995647995563605</v>
       </c>
       <c r="G8">
-        <v>-0.05852037222361934</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.006765740568298637</v>
+      </c>
+      <c r="H8">
+        <v>-0.06160525925571168</v>
+      </c>
+      <c r="I8">
+        <v>-0.01998837290225993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08732825118639166</v>
+        <v>-0.06339003109377109</v>
       </c>
       <c r="C9">
-        <v>-0.02751577842395303</v>
+        <v>0.02218907706179854</v>
       </c>
       <c r="D9">
-        <v>0.02965716987102088</v>
+        <v>-0.03680450198376625</v>
       </c>
       <c r="E9">
-        <v>0.0686486819505307</v>
+        <v>-0.03059465650540422</v>
       </c>
       <c r="F9">
-        <v>0.03321030900854259</v>
+        <v>0.08871664054308138</v>
       </c>
       <c r="G9">
-        <v>-0.04480467521314332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.03160984769562315</v>
+      </c>
+      <c r="H9">
+        <v>-0.0316378125455293</v>
+      </c>
+      <c r="I9">
+        <v>-0.001952668835070535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.009089544995841544</v>
+        <v>-0.01507378525342959</v>
       </c>
       <c r="C10">
-        <v>0.1608153342710291</v>
+        <v>-0.1273135021040038</v>
       </c>
       <c r="D10">
-        <v>-0.01283250837749857</v>
+        <v>0.09697869289257038</v>
       </c>
       <c r="E10">
-        <v>0.05524005390326775</v>
+        <v>0.02123475628832271</v>
       </c>
       <c r="F10">
-        <v>0.01463344935503145</v>
+        <v>0.06250982963427779</v>
       </c>
       <c r="G10">
-        <v>-0.006277815266122575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.019870289952865</v>
+      </c>
+      <c r="H10">
+        <v>-0.004340871975054824</v>
+      </c>
+      <c r="I10">
+        <v>-0.116744730666905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05882516602818228</v>
+        <v>-0.04949795140048481</v>
       </c>
       <c r="C11">
-        <v>-0.004718453487883787</v>
+        <v>0.02388331732469702</v>
       </c>
       <c r="D11">
-        <v>-0.00963678656096581</v>
+        <v>-0.006465378309802167</v>
       </c>
       <c r="E11">
-        <v>0.0404786926047344</v>
+        <v>-0.00531983633553036</v>
       </c>
       <c r="F11">
-        <v>0.006938314401067425</v>
+        <v>0.04630638289404251</v>
       </c>
       <c r="G11">
-        <v>0.03112831737250825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.002174360591025859</v>
+      </c>
+      <c r="H11">
+        <v>-0.01095950343195839</v>
+      </c>
+      <c r="I11">
+        <v>0.02365216569327635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04446744371549839</v>
+        <v>-0.04510710400142306</v>
       </c>
       <c r="C12">
-        <v>-0.01083425118945878</v>
+        <v>0.01762267314339769</v>
       </c>
       <c r="D12">
-        <v>-0.00598051243716434</v>
+        <v>-0.01605321572596486</v>
       </c>
       <c r="E12">
-        <v>0.03344965029970958</v>
+        <v>-0.007709889278885907</v>
       </c>
       <c r="F12">
-        <v>0.001995083445287269</v>
+        <v>0.02477501695743207</v>
       </c>
       <c r="G12">
-        <v>0.007300749323991973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.004484947822690773</v>
+      </c>
+      <c r="H12">
+        <v>-0.009017390984030385</v>
+      </c>
+      <c r="I12">
+        <v>0.02048794399160599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06275883073158328</v>
+        <v>-0.04281075568723954</v>
       </c>
       <c r="C13">
-        <v>-0.01443926495934505</v>
+        <v>0.02703630230784445</v>
       </c>
       <c r="D13">
-        <v>-0.009889558147097957</v>
+        <v>0.001345537547797453</v>
       </c>
       <c r="E13">
-        <v>0.1079844645173774</v>
+        <v>-0.005545610586456706</v>
       </c>
       <c r="F13">
-        <v>0.02461449543437691</v>
+        <v>0.105573737762791</v>
       </c>
       <c r="G13">
-        <v>-0.03490532277406067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.01301193064296765</v>
+      </c>
+      <c r="H13">
+        <v>-0.05857810062362218</v>
+      </c>
+      <c r="I13">
+        <v>0.00101286037114483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03749577857530272</v>
+        <v>-0.02940563315105163</v>
       </c>
       <c r="C14">
-        <v>-0.007891401918717114</v>
+        <v>0.01097939606938885</v>
       </c>
       <c r="D14">
-        <v>0.01981838132938676</v>
+        <v>-0.01423893999314784</v>
       </c>
       <c r="E14">
-        <v>0.01936562550106318</v>
+        <v>-0.02396430607964994</v>
       </c>
       <c r="F14">
-        <v>-0.001457126855042326</v>
+        <v>0.03914237821074688</v>
       </c>
       <c r="G14">
-        <v>-0.01487477102160232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.0201975110479548</v>
+      </c>
+      <c r="H14">
+        <v>-0.05723124107631622</v>
+      </c>
+      <c r="I14">
+        <v>-0.007567423595040534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04870489179445466</v>
+        <v>-0.04350938656972304</v>
       </c>
       <c r="C16">
-        <v>-0.02097542628193463</v>
+        <v>0.02783646692053186</v>
       </c>
       <c r="D16">
-        <v>-0.01589727945182751</v>
+        <v>-0.01667093128860819</v>
       </c>
       <c r="E16">
-        <v>0.03933517787788557</v>
+        <v>-0.00138321631226747</v>
       </c>
       <c r="F16">
-        <v>0.001014179719982774</v>
+        <v>0.03940373002464446</v>
       </c>
       <c r="G16">
-        <v>0.01591516875318443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.008660114222439211</v>
+      </c>
+      <c r="H16">
+        <v>-0.01487850396776475</v>
+      </c>
+      <c r="I16">
+        <v>0.02081463340628078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05264263250331026</v>
+        <v>-0.04598797033267382</v>
       </c>
       <c r="C19">
-        <v>-0.02286700408146856</v>
+        <v>0.02894880193283293</v>
       </c>
       <c r="D19">
-        <v>0.000160602719537368</v>
+        <v>-0.01753505773919287</v>
       </c>
       <c r="E19">
-        <v>0.08017316559733971</v>
+        <v>-0.01029623910983072</v>
       </c>
       <c r="F19">
-        <v>-0.005370890830542044</v>
+        <v>0.09096002950953974</v>
       </c>
       <c r="G19">
-        <v>-0.05975796541036433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.003013750260441935</v>
+      </c>
+      <c r="H19">
+        <v>-0.08884713063192717</v>
+      </c>
+      <c r="I19">
+        <v>-0.01557344510170636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03759306795147564</v>
+        <v>-0.01837533163949276</v>
       </c>
       <c r="C20">
-        <v>-0.03365307163980798</v>
+        <v>0.0244172200220358</v>
       </c>
       <c r="D20">
-        <v>0.01227191038131389</v>
+        <v>-0.02473620840508221</v>
       </c>
       <c r="E20">
-        <v>0.06683644737623601</v>
+        <v>-0.01702793261643511</v>
       </c>
       <c r="F20">
-        <v>-0.01122689093237889</v>
+        <v>0.07330681710055735</v>
       </c>
       <c r="G20">
-        <v>-0.02717340340495661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.0009674899162304529</v>
+      </c>
+      <c r="H20">
+        <v>-0.07866850437723985</v>
+      </c>
+      <c r="I20">
+        <v>-0.00378017858550944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03972646478626244</v>
+        <v>-0.02151594646705439</v>
       </c>
       <c r="C21">
-        <v>-0.01452397858957457</v>
+        <v>0.01510910171084336</v>
       </c>
       <c r="D21">
-        <v>-0.002112798957946275</v>
+        <v>-0.0286935274195623</v>
       </c>
       <c r="E21">
-        <v>0.08750228806159338</v>
+        <v>7.645619182326288e-05</v>
       </c>
       <c r="F21">
-        <v>0.05129705286358457</v>
+        <v>0.08148399164876483</v>
       </c>
       <c r="G21">
-        <v>-0.02291519981731966</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02687099199415782</v>
+      </c>
+      <c r="H21">
+        <v>-0.03674742029550809</v>
+      </c>
+      <c r="I21">
+        <v>0.01280776680426887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04932762047188435</v>
+        <v>-0.0420907525169025</v>
       </c>
       <c r="C24">
-        <v>-0.01369983886174477</v>
+        <v>0.01851906204093803</v>
       </c>
       <c r="D24">
-        <v>-0.00436014891775059</v>
+        <v>-0.01041078652428108</v>
       </c>
       <c r="E24">
-        <v>0.04798067765000032</v>
+        <v>-0.006249651269913514</v>
       </c>
       <c r="F24">
-        <v>0.003248205222619132</v>
+        <v>0.04579307885004359</v>
       </c>
       <c r="G24">
-        <v>0.0121933841234843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.009045331583046563</v>
+      </c>
+      <c r="H24">
+        <v>-0.01441337521817905</v>
+      </c>
+      <c r="I24">
+        <v>0.02072111283249435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04934327587030091</v>
+        <v>-0.04369317167431484</v>
       </c>
       <c r="C25">
-        <v>-0.00334570810933277</v>
+        <v>0.01876939433659138</v>
       </c>
       <c r="D25">
-        <v>-0.006222339889482962</v>
+        <v>-0.009561568967018923</v>
       </c>
       <c r="E25">
-        <v>0.04558838515308337</v>
+        <v>-0.004390164331254789</v>
       </c>
       <c r="F25">
-        <v>0.01065039394523445</v>
+        <v>0.05028738425041855</v>
       </c>
       <c r="G25">
-        <v>0.01832023822822548</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002458199502033377</v>
+      </c>
+      <c r="H25">
+        <v>-0.008429664015681801</v>
+      </c>
+      <c r="I25">
+        <v>0.0204194129964198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.008929740967594815</v>
+        <v>-0.01367047855794784</v>
       </c>
       <c r="C26">
-        <v>-0.01532624170602349</v>
+        <v>0.01627779425284082</v>
       </c>
       <c r="D26">
-        <v>0.00394973208411747</v>
+        <v>-0.006843450600424793</v>
       </c>
       <c r="E26">
-        <v>0.05037537559196464</v>
+        <v>0.001593659583324402</v>
       </c>
       <c r="F26">
-        <v>0.01953244091709629</v>
+        <v>0.05450067259785655</v>
       </c>
       <c r="G26">
-        <v>0.002644399932107349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01032983073118597</v>
+      </c>
+      <c r="H26">
+        <v>-0.03632244197331275</v>
+      </c>
+      <c r="I26">
+        <v>0.01559922932755823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1110118183174844</v>
+        <v>-0.08172586665242323</v>
       </c>
       <c r="C27">
-        <v>-0.01455578751572957</v>
+        <v>0.019933417585816</v>
       </c>
       <c r="D27">
-        <v>0.01966435025575164</v>
+        <v>-0.01578364677309755</v>
       </c>
       <c r="E27">
-        <v>0.1121149181244745</v>
+        <v>-0.03042771508396417</v>
       </c>
       <c r="F27">
-        <v>0.0229404360630153</v>
+        <v>0.08247661808175907</v>
       </c>
       <c r="G27">
-        <v>-0.01428975325034536</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.007121165904875145</v>
+      </c>
+      <c r="H27">
+        <v>-0.01726336560563635</v>
+      </c>
+      <c r="I27">
+        <v>-0.00312175634346678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.009938551129070401</v>
+        <v>-0.02817708802126108</v>
       </c>
       <c r="C28">
-        <v>0.2466080566361248</v>
+        <v>-0.1933697931933152</v>
       </c>
       <c r="D28">
-        <v>-0.0215704322735625</v>
+        <v>0.1351456800821774</v>
       </c>
       <c r="E28">
-        <v>0.03017056584197634</v>
+        <v>0.03015808101985556</v>
       </c>
       <c r="F28">
-        <v>0.007119414570480693</v>
+        <v>0.04501218014042767</v>
       </c>
       <c r="G28">
-        <v>-0.01604839490882868</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02230873344325517</v>
+      </c>
+      <c r="H28">
+        <v>0.004601782096530261</v>
+      </c>
+      <c r="I28">
+        <v>-0.1613515678189139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02135210166344814</v>
+        <v>-0.0221424469962742</v>
       </c>
       <c r="C29">
-        <v>-0.01579555970006945</v>
+        <v>0.01105739631021229</v>
       </c>
       <c r="D29">
-        <v>0.02140449694366506</v>
+        <v>-0.01896940426117739</v>
       </c>
       <c r="E29">
-        <v>0.02711797390901987</v>
+        <v>-0.02322562588039933</v>
       </c>
       <c r="F29">
-        <v>0.01225481665289355</v>
+        <v>0.03935321552119993</v>
       </c>
       <c r="G29">
-        <v>-0.01425065954304668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.02293945756767396</v>
+      </c>
+      <c r="H29">
+        <v>-0.05491594435495221</v>
+      </c>
+      <c r="I29">
+        <v>-0.0008041447278998954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1080683264011856</v>
+        <v>-0.09757192591155066</v>
       </c>
       <c r="C30">
-        <v>-0.005665416362156146</v>
+        <v>0.05063310458882082</v>
       </c>
       <c r="D30">
-        <v>0.01780949987104116</v>
+        <v>0.01432950080938914</v>
       </c>
       <c r="E30">
-        <v>0.1134134720765037</v>
+        <v>-0.02841213868981024</v>
       </c>
       <c r="F30">
-        <v>0.03042530159312543</v>
+        <v>0.1092424479984505</v>
       </c>
       <c r="G30">
-        <v>0.07872591571032905</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.007536010415110945</v>
+      </c>
+      <c r="H30">
+        <v>-0.01213025874759525</v>
+      </c>
+      <c r="I30">
+        <v>0.02580730067972544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.05849142032009592</v>
+        <v>-0.06118382688775937</v>
       </c>
       <c r="C31">
-        <v>-0.01306447973289012</v>
+        <v>0.02357598429142248</v>
       </c>
       <c r="D31">
-        <v>0.01576982261966337</v>
+        <v>-0.001377402987107226</v>
       </c>
       <c r="E31">
-        <v>-0.02071654402330669</v>
+        <v>-0.01825306610302323</v>
       </c>
       <c r="F31">
-        <v>0.006805492964794949</v>
+        <v>0.007510844043741858</v>
       </c>
       <c r="G31">
-        <v>0.01904466668535631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03617786909575819</v>
+      </c>
+      <c r="H31">
+        <v>-0.03881809064729476</v>
+      </c>
+      <c r="I31">
+        <v>-0.005634620698536008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0717154094913718</v>
+        <v>-0.04847744785730836</v>
       </c>
       <c r="C32">
-        <v>-0.02368744027564747</v>
+        <v>0.03209380217966188</v>
       </c>
       <c r="D32">
-        <v>0.01129510987136189</v>
+        <v>-0.03793937291156001</v>
       </c>
       <c r="E32">
-        <v>0.1131495108756496</v>
+        <v>-0.02532691104439223</v>
       </c>
       <c r="F32">
-        <v>-0.002089589813157225</v>
+        <v>0.09792109173776448</v>
       </c>
       <c r="G32">
-        <v>-0.01048545199140564</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-8.322109942399753e-05</v>
+      </c>
+      <c r="H32">
+        <v>-0.0498662484471836</v>
+      </c>
+      <c r="I32">
+        <v>-0.009030135754970074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06903822932077451</v>
+        <v>-0.05840419966664528</v>
       </c>
       <c r="C33">
-        <v>-0.03027547953234299</v>
+        <v>0.04901365860057771</v>
       </c>
       <c r="D33">
-        <v>0.008568673633148947</v>
+        <v>-0.009153149839585328</v>
       </c>
       <c r="E33">
-        <v>0.07223678443452886</v>
+        <v>-0.004553677193833016</v>
       </c>
       <c r="F33">
-        <v>0.04773438039272651</v>
+        <v>0.08600851767408264</v>
       </c>
       <c r="G33">
-        <v>-0.008730605294088192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02376996454512416</v>
+      </c>
+      <c r="H33">
+        <v>-0.04853146108573785</v>
+      </c>
+      <c r="I33">
+        <v>0.02327209003385044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04886655811271152</v>
+        <v>-0.04456859795512354</v>
       </c>
       <c r="C34">
-        <v>-0.01276511363142596</v>
+        <v>0.02078824997576737</v>
       </c>
       <c r="D34">
-        <v>-0.005957565872548925</v>
+        <v>-0.01741828337663387</v>
       </c>
       <c r="E34">
-        <v>0.02624224684012716</v>
+        <v>-0.01228241447919551</v>
       </c>
       <c r="F34">
-        <v>-0.002889221337134433</v>
+        <v>0.0388154124581259</v>
       </c>
       <c r="G34">
-        <v>0.007260733757549154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0008334652505609298</v>
+      </c>
+      <c r="H34">
+        <v>-0.01898659159168193</v>
+      </c>
+      <c r="I34">
+        <v>0.01911789890267831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01280280094371002</v>
+        <v>-0.01490237616393062</v>
       </c>
       <c r="C36">
-        <v>0.0104952526684074</v>
+        <v>-0.0007575140899632595</v>
       </c>
       <c r="D36">
-        <v>0.00561466945801864</v>
+        <v>-0.004586077103507717</v>
       </c>
       <c r="E36">
-        <v>0.02364964565558238</v>
+        <v>-0.00815726074218988</v>
       </c>
       <c r="F36">
-        <v>0.009102104230887498</v>
+        <v>0.0307366907049982</v>
       </c>
       <c r="G36">
-        <v>0.00141674525947669</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01729930694904252</v>
+      </c>
+      <c r="H36">
+        <v>-0.03303558939860055</v>
+      </c>
+      <c r="I36">
+        <v>0.003618562631794228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.05669824423814347</v>
+        <v>-0.03298681949606916</v>
       </c>
       <c r="C38">
-        <v>-0.003717613347826559</v>
+        <v>0.007651123413883839</v>
       </c>
       <c r="D38">
-        <v>0.02435401957401058</v>
+        <v>-0.007759911704297326</v>
       </c>
       <c r="E38">
-        <v>0.03399665229828169</v>
+        <v>-0.008500668340988589</v>
       </c>
       <c r="F38">
-        <v>0.009974151097629141</v>
+        <v>0.0541941241174155</v>
       </c>
       <c r="G38">
-        <v>-0.0466263632354546</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02574202127360035</v>
+      </c>
+      <c r="H38">
+        <v>-0.01730386312254127</v>
+      </c>
+      <c r="I38">
+        <v>0.008920863798243103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07626976666053453</v>
+        <v>-0.05813111069151783</v>
       </c>
       <c r="C39">
-        <v>-0.01044718661286139</v>
+        <v>0.03523478864179924</v>
       </c>
       <c r="D39">
-        <v>0.0002563258313233722</v>
+        <v>-0.0160623362942936</v>
       </c>
       <c r="E39">
-        <v>0.04498857325722987</v>
+        <v>-0.01377251421417764</v>
       </c>
       <c r="F39">
-        <v>0.02344069817704783</v>
+        <v>0.06168490087646725</v>
       </c>
       <c r="G39">
-        <v>0.02499646061909044</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01131541001993077</v>
+      </c>
+      <c r="H39">
+        <v>-0.008752538722624818</v>
+      </c>
+      <c r="I39">
+        <v>0.04298360907603712</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07258968343337732</v>
+        <v>-0.05750006851976529</v>
       </c>
       <c r="C40">
-        <v>-0.0250095368852872</v>
+        <v>0.04052600998360485</v>
       </c>
       <c r="D40">
-        <v>0.002030398072500746</v>
+        <v>-2.815265214771975e-05</v>
       </c>
       <c r="E40">
-        <v>0.1051717145770314</v>
+        <v>-0.0198321588316899</v>
       </c>
       <c r="F40">
-        <v>0.04279527181007235</v>
+        <v>0.109121255246502</v>
       </c>
       <c r="G40">
-        <v>-0.0918245363167471</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0101050949550391</v>
+      </c>
+      <c r="H40">
+        <v>-0.07597319084660098</v>
+      </c>
+      <c r="I40">
+        <v>0.0132792037893899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.004001674803763143</v>
+        <v>-0.002084693897511307</v>
       </c>
       <c r="C41">
-        <v>-0.0133572745539636</v>
+        <v>0.009705368066101526</v>
       </c>
       <c r="D41">
-        <v>0.01732968746412433</v>
+        <v>-0.007311829042473062</v>
       </c>
       <c r="E41">
-        <v>0.0097863017270931</v>
+        <v>-0.00605593472596471</v>
       </c>
       <c r="F41">
-        <v>0.02486930287836026</v>
+        <v>0.01752438458838674</v>
       </c>
       <c r="G41">
-        <v>-0.0146673999627445</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.0308909599341803</v>
+      </c>
+      <c r="H41">
+        <v>-0.04052099879631157</v>
+      </c>
+      <c r="I41">
+        <v>-0.01663843008786983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1290752690381292</v>
+        <v>-0.2243691119172652</v>
       </c>
       <c r="C42">
-        <v>-0.189067437241412</v>
+        <v>0.1745053818106837</v>
       </c>
       <c r="D42">
-        <v>-0.9351442189422835</v>
+        <v>-0.03222916542921116</v>
       </c>
       <c r="E42">
-        <v>-0.02583712703072981</v>
+        <v>0.9290671531565478</v>
       </c>
       <c r="F42">
-        <v>-0.01521359474627764</v>
+        <v>-0.1542846221313572</v>
       </c>
       <c r="G42">
-        <v>0.09563076376641766</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.007173538645689002</v>
+      </c>
+      <c r="H42">
+        <v>0.001723657280285219</v>
+      </c>
+      <c r="I42">
+        <v>-0.03988633647406461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.008159689887286556</v>
+        <v>-0.005157334833287025</v>
       </c>
       <c r="C43">
-        <v>-0.01421992842495226</v>
+        <v>0.01290663186693962</v>
       </c>
       <c r="D43">
-        <v>0.01622679288320253</v>
+        <v>-0.00610165683848571</v>
       </c>
       <c r="E43">
-        <v>0.03083087216013653</v>
+        <v>-0.006774180437553037</v>
       </c>
       <c r="F43">
-        <v>0.002214180065809839</v>
+        <v>0.0310020909996413</v>
       </c>
       <c r="G43">
-        <v>-0.005041819012955451</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01397224881239933</v>
+      </c>
+      <c r="H43">
+        <v>-0.03988523999083029</v>
+      </c>
+      <c r="I43">
+        <v>-0.007632372482937773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04108173530532899</v>
+        <v>-0.03078250855917047</v>
       </c>
       <c r="C44">
-        <v>-0.03596392944087581</v>
+        <v>0.02868845963514485</v>
       </c>
       <c r="D44">
-        <v>0.01035924266091915</v>
+        <v>-0.02112776640648035</v>
       </c>
       <c r="E44">
-        <v>0.1024044916632597</v>
+        <v>-0.004938371493811578</v>
       </c>
       <c r="F44">
-        <v>0.08279925624788127</v>
+        <v>0.1211253020870177</v>
       </c>
       <c r="G44">
-        <v>-0.08154673400463565</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04992699726545487</v>
+      </c>
+      <c r="H44">
+        <v>-0.1115592816963919</v>
+      </c>
+      <c r="I44">
+        <v>-0.02139090649604908</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02489539221151029</v>
+        <v>-0.02408233043798889</v>
       </c>
       <c r="C46">
-        <v>-0.01259004163172581</v>
+        <v>0.02331185946031168</v>
       </c>
       <c r="D46">
-        <v>0.02208299532595896</v>
+        <v>-0.01241587426916438</v>
       </c>
       <c r="E46">
-        <v>0.02071198184444474</v>
+        <v>-0.0202686898580255</v>
       </c>
       <c r="F46">
-        <v>0.01907897931154265</v>
+        <v>0.04856261001585602</v>
       </c>
       <c r="G46">
-        <v>-0.01435134190142346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02022240189139759</v>
+      </c>
+      <c r="H46">
+        <v>-0.06165368676393661</v>
+      </c>
+      <c r="I46">
+        <v>-0.006184807115908106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08501333288592261</v>
+        <v>-0.0905915554892254</v>
       </c>
       <c r="C47">
-        <v>-0.007186097088474473</v>
+        <v>0.02007346590399981</v>
       </c>
       <c r="D47">
-        <v>0.01889065181719264</v>
+        <v>-0.004312507993055272</v>
       </c>
       <c r="E47">
-        <v>-0.02319505457399247</v>
+        <v>-0.02451565084606389</v>
       </c>
       <c r="F47">
-        <v>0.004183664315547516</v>
+        <v>-0.002802958062672514</v>
       </c>
       <c r="G47">
-        <v>-0.003694852244670905</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03435578850498389</v>
+      </c>
+      <c r="H47">
+        <v>-0.06093670612419599</v>
+      </c>
+      <c r="I47">
+        <v>-0.008469887943180416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01558032777227999</v>
+        <v>-0.01728463610296409</v>
       </c>
       <c r="C48">
-        <v>-0.01590546049442545</v>
+        <v>0.01535115091659288</v>
       </c>
       <c r="D48">
-        <v>0.01516748399608029</v>
+        <v>-0.01239214625035243</v>
       </c>
       <c r="E48">
-        <v>0.03342463873436174</v>
+        <v>-0.01010402044626495</v>
       </c>
       <c r="F48">
-        <v>0.01642550476796883</v>
+        <v>0.03532386868214085</v>
       </c>
       <c r="G48">
-        <v>-0.006372574091960405</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01076752827941602</v>
+      </c>
+      <c r="H48">
+        <v>-0.02692724264283651</v>
+      </c>
+      <c r="I48">
+        <v>-0.007809812776845478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08445796863921425</v>
+        <v>-0.08701173449653041</v>
       </c>
       <c r="C50">
-        <v>-0.02614010333470982</v>
+        <v>0.02415544720170062</v>
       </c>
       <c r="D50">
-        <v>0.02789008136554341</v>
+        <v>-0.02643287575230014</v>
       </c>
       <c r="E50">
-        <v>-0.02022305717535231</v>
+        <v>-0.02100962281480907</v>
       </c>
       <c r="F50">
-        <v>0.0004478762676190243</v>
+        <v>0.003558323307070644</v>
       </c>
       <c r="G50">
-        <v>0.01371211612631558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.003292072857295885</v>
+      </c>
+      <c r="H50">
+        <v>-0.04715798510449246</v>
+      </c>
+      <c r="I50">
+        <v>0.01422171306641236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.06986968119080698</v>
+        <v>-0.04727051403674758</v>
       </c>
       <c r="C51">
-        <v>0.02459241953720142</v>
+        <v>0.003887661840335533</v>
       </c>
       <c r="D51">
-        <v>-0.003189279718238259</v>
+        <v>0.01505346579799755</v>
       </c>
       <c r="E51">
-        <v>0.07418197550009993</v>
+        <v>-0.008311879876137501</v>
       </c>
       <c r="F51">
-        <v>0.05423406532860185</v>
+        <v>0.09676483151599077</v>
       </c>
       <c r="G51">
-        <v>0.0280489634597714</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04692630104629035</v>
+      </c>
+      <c r="H51">
+        <v>-0.06319656209375335</v>
+      </c>
+      <c r="I51">
+        <v>-0.01445397306722076</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1468535616211486</v>
+        <v>-0.1280189587642278</v>
       </c>
       <c r="C53">
-        <v>-0.009119093755305513</v>
+        <v>0.03393737846051294</v>
       </c>
       <c r="D53">
-        <v>0.04006468300209148</v>
+        <v>-0.01083490843482858</v>
       </c>
       <c r="E53">
-        <v>-0.04091179926425867</v>
+        <v>-0.04698944306438884</v>
       </c>
       <c r="F53">
-        <v>-0.02003232555110249</v>
+        <v>-0.03404745620559491</v>
       </c>
       <c r="G53">
-        <v>0.02207445078957281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.01894285837403052</v>
+      </c>
+      <c r="H53">
+        <v>-0.0043982645487817</v>
+      </c>
+      <c r="I53">
+        <v>-0.0302212698847259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02731659567381747</v>
+        <v>-0.02295003129631526</v>
       </c>
       <c r="C54">
-        <v>0.005088955752898676</v>
+        <v>0.003903574416544437</v>
       </c>
       <c r="D54">
-        <v>0.02787807609974585</v>
+        <v>-0.00909895307766221</v>
       </c>
       <c r="E54">
-        <v>0.02882329992988509</v>
+        <v>-0.02613219061067142</v>
       </c>
       <c r="F54">
-        <v>0.04281407481035615</v>
+        <v>0.04290348047464925</v>
       </c>
       <c r="G54">
-        <v>-0.02786626135572245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04065496905588654</v>
+      </c>
+      <c r="H54">
+        <v>-0.053622811416664</v>
+      </c>
+      <c r="I54">
+        <v>-0.03070045156815515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09911656497874043</v>
+        <v>-0.102678582646859</v>
       </c>
       <c r="C55">
-        <v>0.004382368811982337</v>
+        <v>0.01142610078056082</v>
       </c>
       <c r="D55">
-        <v>0.03717802694045737</v>
+        <v>-0.0202528218430595</v>
       </c>
       <c r="E55">
-        <v>-0.005003003017612255</v>
+        <v>-0.03349898952124208</v>
       </c>
       <c r="F55">
-        <v>-0.03323448219288189</v>
+        <v>-0.02340935390088248</v>
       </c>
       <c r="G55">
-        <v>0.006710433086018624</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.00909739493285097</v>
+      </c>
+      <c r="H55">
+        <v>-0.0230063443645515</v>
+      </c>
+      <c r="I55">
+        <v>-0.009684647736457204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1790013227818372</v>
+        <v>-0.1688300152819977</v>
       </c>
       <c r="C56">
-        <v>0.01499379736496339</v>
+        <v>0.0144261462554604</v>
       </c>
       <c r="D56">
-        <v>0.07481141637900639</v>
+        <v>-0.008341858266399115</v>
       </c>
       <c r="E56">
-        <v>-0.07137960829720102</v>
+        <v>-0.0857122901387171</v>
       </c>
       <c r="F56">
-        <v>-0.07251371882403933</v>
+        <v>-0.07376263430785819</v>
       </c>
       <c r="G56">
-        <v>0.02898329587567588</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02414669869143572</v>
+      </c>
+      <c r="H56">
+        <v>0.03716963042735565</v>
+      </c>
+      <c r="I56">
+        <v>-0.01443723574811676</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.09204555617974866</v>
+        <v>-0.07136510202600772</v>
       </c>
       <c r="C57">
-        <v>-0.02052874726079785</v>
+        <v>0.03209048634545193</v>
       </c>
       <c r="D57">
-        <v>0.02282942503880061</v>
+        <v>-0.001179188374206643</v>
       </c>
       <c r="E57">
-        <v>0.06088418293786088</v>
+        <v>-0.01272993698397958</v>
       </c>
       <c r="F57">
-        <v>0.02107300588956811</v>
+        <v>0.06920989460093718</v>
       </c>
       <c r="G57">
-        <v>-0.02511460287422442</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.01095494559084127</v>
+      </c>
+      <c r="H57">
+        <v>-0.03542644265447203</v>
+      </c>
+      <c r="I57">
+        <v>0.01629057965110256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1724751384964856</v>
+        <v>-0.2009403591977442</v>
       </c>
       <c r="C58">
-        <v>0.005866005836842774</v>
+        <v>0.08461121034626636</v>
       </c>
       <c r="D58">
-        <v>-0.04040484679698782</v>
+        <v>0.04607355558192407</v>
       </c>
       <c r="E58">
-        <v>0.143771042406777</v>
+        <v>0.02056692851576252</v>
       </c>
       <c r="F58">
-        <v>-0.05109524672378637</v>
+        <v>0.1958852462794285</v>
       </c>
       <c r="G58">
-        <v>-0.1806892248573381</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1272814844625363</v>
+      </c>
+      <c r="H58">
+        <v>-0.3141617688476002</v>
+      </c>
+      <c r="I58">
+        <v>-0.06866497807561774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.002825614175177084</v>
+        <v>-0.03150176867598616</v>
       </c>
       <c r="C59">
-        <v>0.2059229978705031</v>
+        <v>-0.1552936036760474</v>
       </c>
       <c r="D59">
-        <v>0.008844793655160728</v>
+        <v>0.1305857050627211</v>
       </c>
       <c r="E59">
-        <v>0.04870424208178351</v>
+        <v>-0.003423817901470276</v>
       </c>
       <c r="F59">
-        <v>0.007597063141729856</v>
+        <v>0.06308951835551445</v>
       </c>
       <c r="G59">
-        <v>-0.003028309653592194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001691860488081456</v>
+      </c>
+      <c r="H59">
+        <v>0.008051795251225074</v>
+      </c>
+      <c r="I59">
+        <v>-0.06737315439484141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1852468576332509</v>
+        <v>-0.1805896846985567</v>
       </c>
       <c r="C60">
-        <v>0.1182389419765833</v>
+        <v>-0.02280604268003376</v>
       </c>
       <c r="D60">
-        <v>0.02530393150938604</v>
+        <v>0.07757880232943758</v>
       </c>
       <c r="E60">
-        <v>0.1688858584514901</v>
+        <v>-0.01324002846768341</v>
       </c>
       <c r="F60">
-        <v>0.0616423844515571</v>
+        <v>0.203047895483395</v>
       </c>
       <c r="G60">
-        <v>0.1501375167895082</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.07847348875724336</v>
+      </c>
+      <c r="H60">
+        <v>0.2572003600937786</v>
+      </c>
+      <c r="I60">
+        <v>0.0850858078890971</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04533942149035715</v>
+        <v>-0.03787335050985004</v>
       </c>
       <c r="C61">
-        <v>0.002726251922545229</v>
+        <v>0.01625968152146034</v>
       </c>
       <c r="D61">
-        <v>-0.009068700833168967</v>
+        <v>-0.01065046194773485</v>
       </c>
       <c r="E61">
-        <v>0.0495083699892956</v>
+        <v>-0.001996842441169942</v>
       </c>
       <c r="F61">
-        <v>0.02550486339855841</v>
+        <v>0.05004270722980064</v>
       </c>
       <c r="G61">
-        <v>0.01349485709270256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.009129454428870308</v>
+      </c>
+      <c r="H61">
+        <v>-0.001506491590636694</v>
+      </c>
+      <c r="I61">
+        <v>0.0431150057840039</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04637779226628228</v>
+        <v>-0.03127770301505906</v>
       </c>
       <c r="C63">
-        <v>0.007376750503777974</v>
+        <v>0.01457356052795663</v>
       </c>
       <c r="D63">
-        <v>0.01334017978591293</v>
+        <v>-0.007166080768811715</v>
       </c>
       <c r="E63">
-        <v>0.03816814206314887</v>
+        <v>-0.01308429963721918</v>
       </c>
       <c r="F63">
-        <v>0.007511252806872161</v>
+        <v>0.03312027748655962</v>
       </c>
       <c r="G63">
-        <v>-0.002729800257226088</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.008165894783632898</v>
+      </c>
+      <c r="H63">
+        <v>-0.04648677165886657</v>
+      </c>
+      <c r="I63">
+        <v>-0.01781948580988746</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07916000226671624</v>
+        <v>-0.05737870097084817</v>
       </c>
       <c r="C64">
-        <v>-0.03642564573562847</v>
+        <v>0.02969041214553847</v>
       </c>
       <c r="D64">
-        <v>0.06154004372938099</v>
+        <v>-0.03654941903899719</v>
       </c>
       <c r="E64">
-        <v>0.07321517712810978</v>
+        <v>-0.04002855840178544</v>
       </c>
       <c r="F64">
-        <v>0.0781702676990888</v>
+        <v>0.06867045817859084</v>
       </c>
       <c r="G64">
-        <v>0.007014395491550338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05055767971127586</v>
+      </c>
+      <c r="H64">
+        <v>-0.009299654802513413</v>
+      </c>
+      <c r="I64">
+        <v>-0.001911430903660446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01935417324339748</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.001074744536284981</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.008255491880611348</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.002020235590972088</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001468211584566661</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01927569791016335</v>
+      </c>
+      <c r="H65">
+        <v>0.001600794025727963</v>
+      </c>
+      <c r="I65">
+        <v>0.01070696878360934</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.09703122210222105</v>
+        <v>-0.07128193808478965</v>
       </c>
       <c r="C66">
-        <v>-0.01652917365788538</v>
+        <v>0.04852477076078002</v>
       </c>
       <c r="D66">
-        <v>0.0380388239281224</v>
+        <v>-0.0152842327213504</v>
       </c>
       <c r="E66">
-        <v>0.07615416576367476</v>
+        <v>-0.0423063847234284</v>
       </c>
       <c r="F66">
-        <v>0.04286559252310537</v>
+        <v>0.08034624201952953</v>
       </c>
       <c r="G66">
-        <v>0.02664038771838794</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.00895503153307323</v>
+      </c>
+      <c r="H66">
+        <v>-0.003871972207796783</v>
+      </c>
+      <c r="I66">
+        <v>0.06054992741287024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.06393918983870152</v>
+        <v>-0.04381909589311608</v>
       </c>
       <c r="C67">
-        <v>0.01983684293599952</v>
+        <v>-0.004175383833811253</v>
       </c>
       <c r="D67">
-        <v>0.01122600497290847</v>
+        <v>0.005105543566346751</v>
       </c>
       <c r="E67">
-        <v>0.02621843467905246</v>
+        <v>-0.006517133172712878</v>
       </c>
       <c r="F67">
-        <v>0.00890520299241042</v>
+        <v>0.04234993872634154</v>
       </c>
       <c r="G67">
-        <v>-0.03485922563676916</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03090281497859749</v>
+      </c>
+      <c r="H67">
+        <v>0.005809978455332205</v>
+      </c>
+      <c r="I67">
+        <v>0.039952391197479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.001543682410811562</v>
+        <v>-0.03907040762335411</v>
       </c>
       <c r="C68">
-        <v>0.2476709909770172</v>
+        <v>-0.1863498143876586</v>
       </c>
       <c r="D68">
-        <v>-0.005373580015903625</v>
+        <v>0.1474992566537067</v>
       </c>
       <c r="E68">
-        <v>0.02791149576984131</v>
+        <v>0.005475588170411922</v>
       </c>
       <c r="F68">
-        <v>-0.004760416985554589</v>
+        <v>0.04093240062754291</v>
       </c>
       <c r="G68">
-        <v>-0.007300976540169801</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.006734777100509006</v>
+      </c>
+      <c r="H68">
+        <v>0.005988793896581779</v>
+      </c>
+      <c r="I68">
+        <v>-0.173024721964385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06974626374022617</v>
+        <v>-0.07138527286900175</v>
       </c>
       <c r="C69">
-        <v>-0.01017218609898309</v>
+        <v>0.01983394525415341</v>
       </c>
       <c r="D69">
-        <v>0.02195539595933131</v>
+        <v>-0.005212715437667835</v>
       </c>
       <c r="E69">
-        <v>-0.01008060163081173</v>
+        <v>-0.02974139744247137</v>
       </c>
       <c r="F69">
-        <v>0.001104527926632886</v>
+        <v>0.006942205531814124</v>
       </c>
       <c r="G69">
-        <v>0.003756105524307472</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02377506895884249</v>
+      </c>
+      <c r="H69">
+        <v>-0.03788790798600795</v>
+      </c>
+      <c r="I69">
+        <v>0.01269746798014734</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.003882516067824796</v>
+        <v>-0.0424583265091873</v>
       </c>
       <c r="C71">
-        <v>0.2698426612661796</v>
+        <v>-0.196762464157407</v>
       </c>
       <c r="D71">
-        <v>-0.004247293379665908</v>
+        <v>0.1642616736295335</v>
       </c>
       <c r="E71">
-        <v>0.06044081747914684</v>
+        <v>0.02744178226417182</v>
       </c>
       <c r="F71">
-        <v>0.01640602286145727</v>
+        <v>0.06363556487052882</v>
       </c>
       <c r="G71">
-        <v>0.0655397879444972</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01333656023733271</v>
+      </c>
+      <c r="H71">
+        <v>0.02435406919909304</v>
+      </c>
+      <c r="I71">
+        <v>-0.1392760757928636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1167598989305727</v>
+        <v>-0.1208240531751657</v>
       </c>
       <c r="C72">
-        <v>0.01502860759025165</v>
+        <v>0.0124658802671955</v>
       </c>
       <c r="D72">
-        <v>0.04819714711914391</v>
+        <v>0.001238504363698271</v>
       </c>
       <c r="E72">
-        <v>0.09442106639160101</v>
+        <v>-0.05354659134464569</v>
       </c>
       <c r="F72">
-        <v>0.003926516317306571</v>
+        <v>0.08738576889142109</v>
       </c>
       <c r="G72">
-        <v>-0.06632878947044625</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04953542324744051</v>
+      </c>
+      <c r="H72">
+        <v>-0.008728063039066992</v>
+      </c>
+      <c r="I72">
+        <v>0.04117195595952938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.269737007071348</v>
+        <v>-0.2622272520057485</v>
       </c>
       <c r="C73">
-        <v>0.1961075776152454</v>
+        <v>-0.04555169897400898</v>
       </c>
       <c r="D73">
-        <v>-0.02100045061830937</v>
+        <v>0.1474649377672969</v>
       </c>
       <c r="E73">
-        <v>0.3120082578413479</v>
+        <v>0.03009966850067112</v>
       </c>
       <c r="F73">
-        <v>0.08969832076775613</v>
+        <v>0.3141324849262523</v>
       </c>
       <c r="G73">
-        <v>0.3274864354653813</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1575070653947978</v>
+      </c>
+      <c r="H73">
+        <v>0.4741290825390291</v>
+      </c>
+      <c r="I73">
+        <v>0.2923743001056896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.160591236602057</v>
+        <v>-0.1524049240075422</v>
       </c>
       <c r="C74">
-        <v>0.005517413749658137</v>
+        <v>0.0265539976233854</v>
       </c>
       <c r="D74">
-        <v>0.04105895236209121</v>
+        <v>0.0004809039150146277</v>
       </c>
       <c r="E74">
-        <v>-0.0115651238981769</v>
+        <v>-0.046596700555563</v>
       </c>
       <c r="F74">
-        <v>-0.05338208747092781</v>
+        <v>-0.04381006771157289</v>
       </c>
       <c r="G74">
-        <v>0.06827362733704039</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01722436606819847</v>
+      </c>
+      <c r="H74">
+        <v>0.02342485921347005</v>
+      </c>
+      <c r="I74">
+        <v>0.003928516656569687</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2374732171490909</v>
+        <v>-0.2416441128108919</v>
       </c>
       <c r="C75">
-        <v>0.01035327352012173</v>
+        <v>0.03349971917508578</v>
       </c>
       <c r="D75">
-        <v>0.05631406055845515</v>
+        <v>0.01263849004850474</v>
       </c>
       <c r="E75">
-        <v>-0.1286422757054037</v>
+        <v>-0.0994188714589065</v>
       </c>
       <c r="F75">
-        <v>-0.06334656279780874</v>
+        <v>-0.137724394214952</v>
       </c>
       <c r="G75">
-        <v>0.02581210586445536</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.005643210570860285</v>
+      </c>
+      <c r="H75">
+        <v>0.01857283060981103</v>
+      </c>
+      <c r="I75">
+        <v>-0.08357495118525984</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2464302520996308</v>
+        <v>-0.2699499075656977</v>
       </c>
       <c r="C76">
-        <v>0.01273866466059009</v>
+        <v>0.01174061524132835</v>
       </c>
       <c r="D76">
-        <v>0.09964739825689109</v>
+        <v>-0.01756855476625695</v>
       </c>
       <c r="E76">
-        <v>-0.1148457816887742</v>
+        <v>-0.1328284300364796</v>
       </c>
       <c r="F76">
-        <v>-0.08562493478468675</v>
+        <v>-0.1661313156813268</v>
       </c>
       <c r="G76">
-        <v>0.05403641597163483</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04697482423812627</v>
+      </c>
+      <c r="H76">
+        <v>0.04084282835528612</v>
+      </c>
+      <c r="I76">
+        <v>-0.004143380373311423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1274278889603674</v>
+        <v>-0.1311248432279424</v>
       </c>
       <c r="C77">
-        <v>-0.01527390850079454</v>
+        <v>0.05072326396668936</v>
       </c>
       <c r="D77">
-        <v>-0.04723451016984906</v>
+        <v>-0.0225268944677594</v>
       </c>
       <c r="E77">
-        <v>0.1658341503201291</v>
+        <v>0.04359527029034498</v>
       </c>
       <c r="F77">
-        <v>0.01862348283874812</v>
+        <v>0.1694944501038183</v>
       </c>
       <c r="G77">
-        <v>-0.1677007095975528</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01544293673128153</v>
+      </c>
+      <c r="H77">
+        <v>-0.2150237790426966</v>
+      </c>
+      <c r="I77">
+        <v>-0.1440583191831111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08540328726681574</v>
+        <v>-0.08495964974540487</v>
       </c>
       <c r="C78">
-        <v>-0.03286691704045364</v>
+        <v>0.04785839729632771</v>
       </c>
       <c r="D78">
-        <v>-0.01919402320847901</v>
+        <v>-0.03562786105672804</v>
       </c>
       <c r="E78">
-        <v>0.06688244318997075</v>
+        <v>0.002170711866670387</v>
       </c>
       <c r="F78">
-        <v>0.02370977740982565</v>
+        <v>0.08726774819086111</v>
       </c>
       <c r="G78">
-        <v>-0.01719463979751206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.005183553448467293</v>
+      </c>
+      <c r="H78">
+        <v>-0.0446921443429673</v>
+      </c>
+      <c r="I78">
+        <v>-0.0139055987720832</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.06415015346523158</v>
+        <v>-0.1482028565630372</v>
       </c>
       <c r="C80">
-        <v>-0.004542265258420164</v>
+        <v>-0.596747010947415</v>
       </c>
       <c r="D80">
-        <v>-0.01452132909612932</v>
+        <v>-0.7685164187135759</v>
       </c>
       <c r="E80">
-        <v>0.03546624049816794</v>
+        <v>0.06621292916666073</v>
       </c>
       <c r="F80">
-        <v>-0.05234481390190248</v>
+        <v>0.04025469130604886</v>
       </c>
       <c r="G80">
-        <v>-0.657207654180886</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.05893641093788981</v>
+      </c>
+      <c r="H80">
+        <v>0.06261652872608518</v>
+      </c>
+      <c r="I80">
+        <v>0.001119181367558486</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1637219997220981</v>
+        <v>-0.1804593517225367</v>
       </c>
       <c r="C81">
-        <v>0.006832480007362886</v>
+        <v>0.009666386863839591</v>
       </c>
       <c r="D81">
-        <v>0.04354052055635609</v>
+        <v>0.003464452493548489</v>
       </c>
       <c r="E81">
-        <v>-0.1307278850152243</v>
+        <v>-0.08674374465268879</v>
       </c>
       <c r="F81">
-        <v>-0.1092176501767112</v>
+        <v>-0.1492344510585902</v>
       </c>
       <c r="G81">
-        <v>0.03874523046430203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0281618046420147</v>
+      </c>
+      <c r="H81">
+        <v>0.01277443495442351</v>
+      </c>
+      <c r="I81">
+        <v>-0.04006360633800843</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09061041182952048</v>
+        <v>-0.06751873310025837</v>
       </c>
       <c r="C83">
-        <v>-0.04028400638357484</v>
+        <v>0.04384282412419563</v>
       </c>
       <c r="D83">
-        <v>-0.09219779160791831</v>
+        <v>-0.01203932725101246</v>
       </c>
       <c r="E83">
-        <v>0.03171512091715565</v>
+        <v>0.04249627636149606</v>
       </c>
       <c r="F83">
-        <v>0.05742789915275037</v>
+        <v>0.05540370811027601</v>
       </c>
       <c r="G83">
-        <v>-0.007871869698191621</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04455162416277759</v>
+      </c>
+      <c r="H83">
+        <v>-0.02901471002514793</v>
+      </c>
+      <c r="I83">
+        <v>-0.001722758557458218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2373142070280874</v>
+        <v>-0.2553624316541944</v>
       </c>
       <c r="C85">
-        <v>-0.05066390896310404</v>
+        <v>0.04989761437356924</v>
       </c>
       <c r="D85">
-        <v>0.05384639496945886</v>
+        <v>-0.02225720970049518</v>
       </c>
       <c r="E85">
-        <v>-0.1396472654708786</v>
+        <v>-0.08868736051240204</v>
       </c>
       <c r="F85">
-        <v>-0.06938352872466076</v>
+        <v>-0.1654288574039496</v>
       </c>
       <c r="G85">
-        <v>-0.01451773889753397</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.002776691800888287</v>
+      </c>
+      <c r="H85">
+        <v>-0.01943064174936215</v>
+      </c>
+      <c r="I85">
+        <v>-0.03732197115692532</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04627270614953057</v>
+        <v>-0.02951487576523748</v>
       </c>
       <c r="C86">
-        <v>-0.03974724615688888</v>
+        <v>0.04048907426702601</v>
       </c>
       <c r="D86">
-        <v>0.01198079469048715</v>
+        <v>-0.02772280684897967</v>
       </c>
       <c r="E86">
-        <v>0.06213444391745653</v>
+        <v>-0.007747892563438213</v>
       </c>
       <c r="F86">
-        <v>-0.003167976030706833</v>
+        <v>0.07227350906967502</v>
       </c>
       <c r="G86">
-        <v>-0.04501629245356356</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.001581071063587635</v>
+      </c>
+      <c r="H86">
+        <v>-0.07643088371170816</v>
+      </c>
+      <c r="I86">
+        <v>-0.02397771215643278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02521230060245858</v>
+        <v>-0.03730215891362965</v>
       </c>
       <c r="C87">
-        <v>0.0583585921394027</v>
+        <v>-0.01496475200201393</v>
       </c>
       <c r="D87">
-        <v>0.01819540071411074</v>
+        <v>0.02041781759348308</v>
       </c>
       <c r="E87">
-        <v>0.06551984629760806</v>
+        <v>-0.003688354285793086</v>
       </c>
       <c r="F87">
-        <v>0.06042309373474736</v>
+        <v>0.1014083575478912</v>
       </c>
       <c r="G87">
-        <v>0.1103958698486078</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02298261999406556</v>
+      </c>
+      <c r="H87">
+        <v>0.006140688315617561</v>
+      </c>
+      <c r="I87">
+        <v>0.02688500864910682</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03927821096790417</v>
+        <v>-0.0267014653740497</v>
       </c>
       <c r="C88">
-        <v>-0.02797430098329306</v>
+        <v>0.01054662605131154</v>
       </c>
       <c r="D88">
-        <v>0.005842129596750686</v>
+        <v>-0.02162263513040477</v>
       </c>
       <c r="E88">
-        <v>-0.005203822003516059</v>
+        <v>-0.01426700635431417</v>
       </c>
       <c r="F88">
-        <v>-0.007296661815572685</v>
+        <v>-0.003396073846551917</v>
       </c>
       <c r="G88">
-        <v>-0.02441682249745886</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03327410385143069</v>
+      </c>
+      <c r="H88">
+        <v>-0.03953290444698164</v>
+      </c>
+      <c r="I88">
+        <v>0.03688342635438883</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.02080450132275287</v>
+        <v>-0.05149210154908934</v>
       </c>
       <c r="C89">
-        <v>0.419508013630048</v>
+        <v>-0.3024604446201067</v>
       </c>
       <c r="D89">
-        <v>-0.09402484826428313</v>
+        <v>0.2616698986825862</v>
       </c>
       <c r="E89">
-        <v>-0.02847224499792717</v>
+        <v>0.05132968970057617</v>
       </c>
       <c r="F89">
-        <v>-0.006944039561124412</v>
+        <v>0.01688973097288303</v>
       </c>
       <c r="G89">
-        <v>-0.06770848739572095</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04535764759046228</v>
+      </c>
+      <c r="H89">
+        <v>-0.05140606213421924</v>
+      </c>
+      <c r="I89">
+        <v>-0.2755739998261789</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.01546858702399663</v>
+        <v>-0.03578375125627948</v>
       </c>
       <c r="C90">
-        <v>0.3142684168262598</v>
+        <v>-0.2662404974106838</v>
       </c>
       <c r="D90">
-        <v>-0.030182091570068</v>
+        <v>0.2080578571101376</v>
       </c>
       <c r="E90">
-        <v>0.02385465238859727</v>
+        <v>0.03406628315995367</v>
       </c>
       <c r="F90">
-        <v>0.01078086611792967</v>
+        <v>0.03217088780398005</v>
       </c>
       <c r="G90">
-        <v>0.03341952444306297</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02418041081862021</v>
+      </c>
+      <c r="H90">
+        <v>-0.004506053921967687</v>
+      </c>
+      <c r="I90">
+        <v>-0.2207103048352481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2970703171453</v>
+        <v>-0.3121705728179718</v>
       </c>
       <c r="C91">
-        <v>-0.02490348975310898</v>
+        <v>0.0435267797940547</v>
       </c>
       <c r="D91">
-        <v>0.05079162974016698</v>
+        <v>-0.009225596733142072</v>
       </c>
       <c r="E91">
-        <v>-0.2654563191353381</v>
+        <v>-0.1001744542243604</v>
       </c>
       <c r="F91">
-        <v>-0.1767980134725461</v>
+        <v>-0.2892205637050476</v>
       </c>
       <c r="G91">
-        <v>-0.06781317180654461</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.04263328282847063</v>
+      </c>
+      <c r="H91">
+        <v>0.01906343013018089</v>
+      </c>
+      <c r="I91">
+        <v>-0.0999907604574878</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.01029752574836117</v>
+        <v>-0.08791491471900814</v>
       </c>
       <c r="C92">
-        <v>0.4245356715082877</v>
+        <v>-0.3613555209515866</v>
       </c>
       <c r="D92">
-        <v>-0.2021233922600857</v>
+        <v>0.2551073889027492</v>
       </c>
       <c r="E92">
-        <v>-0.1233010482020706</v>
+        <v>0.06955034918770063</v>
       </c>
       <c r="F92">
-        <v>-0.0802057669028826</v>
+        <v>-0.1394567826142317</v>
       </c>
       <c r="G92">
-        <v>-0.2849370379756393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.08812389706064852</v>
+      </c>
+      <c r="H92">
+        <v>-0.434652901672089</v>
+      </c>
+      <c r="I92">
+        <v>0.7331664553459126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.02629196044951593</v>
+        <v>-0.03613324904528162</v>
       </c>
       <c r="C93">
-        <v>0.3701020699249689</v>
+        <v>-0.3146168821055276</v>
       </c>
       <c r="D93">
-        <v>-0.07340064783626349</v>
+        <v>0.2643555623199321</v>
       </c>
       <c r="E93">
-        <v>-0.04550506027012764</v>
+        <v>0.06482961324023115</v>
       </c>
       <c r="F93">
-        <v>-0.02585549528388361</v>
+        <v>-0.02154393372969263</v>
       </c>
       <c r="G93">
-        <v>-0.06680396417113926</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0350737548053652</v>
+      </c>
+      <c r="H93">
+        <v>0.01190533453093942</v>
+      </c>
+      <c r="I93">
+        <v>-0.1908060673124925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2897712451561252</v>
+        <v>-0.3159695519593141</v>
       </c>
       <c r="C94">
-        <v>0.03705656785290497</v>
+        <v>0.02072901655246806</v>
       </c>
       <c r="D94">
-        <v>0.002657490763670225</v>
+        <v>0.04113088601152842</v>
       </c>
       <c r="E94">
-        <v>-0.3556014934750926</v>
+        <v>-0.1409888838067036</v>
       </c>
       <c r="F94">
-        <v>-0.4304197262933955</v>
+        <v>-0.3628309200941101</v>
       </c>
       <c r="G94">
-        <v>0.04307172456632419</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1682722550632886</v>
+      </c>
+      <c r="H94">
+        <v>-0.1147359713959566</v>
+      </c>
+      <c r="I94">
+        <v>-0.04695432518678665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.203114462625131</v>
+        <v>-0.1327354621567648</v>
       </c>
       <c r="C95">
-        <v>0.02984675328435503</v>
+        <v>0.1010887026860914</v>
       </c>
       <c r="D95">
-        <v>-0.004260279569891992</v>
+        <v>0.0542774565243321</v>
       </c>
       <c r="E95">
-        <v>-0.4650074230744683</v>
+        <v>-0.02980504311747457</v>
       </c>
       <c r="F95">
-        <v>0.8136119925774727</v>
+        <v>-0.04431825045822988</v>
       </c>
       <c r="G95">
-        <v>-0.08712063471347269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9245083904283996</v>
+      </c>
+      <c r="H95">
+        <v>0.1652154541502252</v>
+      </c>
+      <c r="I95">
+        <v>0.01960121729160782</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2147329178136566</v>
+        <v>-0.200949764564133</v>
       </c>
       <c r="C98">
-        <v>0.1388880659440844</v>
+        <v>-0.03172066454594447</v>
       </c>
       <c r="D98">
-        <v>-0.03349665116788628</v>
+        <v>0.1018117191033655</v>
       </c>
       <c r="E98">
-        <v>0.1028275576935419</v>
+        <v>0.02738908632710278</v>
       </c>
       <c r="F98">
-        <v>0.04495700928874884</v>
+        <v>0.1562143714317762</v>
       </c>
       <c r="G98">
-        <v>0.2590067515233497</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.0844043219393302</v>
+      </c>
+      <c r="H98">
+        <v>0.3473512446070576</v>
+      </c>
+      <c r="I98">
+        <v>0.1473582044205311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02107340635692399</v>
+        <v>-0.01583122326272507</v>
       </c>
       <c r="C101">
-        <v>-0.01611605734410329</v>
+        <v>0.02144800320145965</v>
       </c>
       <c r="D101">
-        <v>0.02303200782743042</v>
+        <v>-0.02193034514695071</v>
       </c>
       <c r="E101">
-        <v>0.0275592282188283</v>
+        <v>-0.02915666282972438</v>
       </c>
       <c r="F101">
-        <v>0.01200420982575691</v>
+        <v>0.06694721458019962</v>
       </c>
       <c r="G101">
-        <v>-0.01431575825708714</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.00930613224669301</v>
+      </c>
+      <c r="H101">
+        <v>-0.113710087823846</v>
+      </c>
+      <c r="I101">
+        <v>0.01393278011470952</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1184259561403991</v>
+        <v>-0.1215410472435905</v>
       </c>
       <c r="C102">
-        <v>-0.01184662694932487</v>
+        <v>0.02090311855593596</v>
       </c>
       <c r="D102">
-        <v>0.03700437785796331</v>
+        <v>-0.01495064399292932</v>
       </c>
       <c r="E102">
-        <v>-0.09019634331858682</v>
+        <v>-0.05575391417916339</v>
       </c>
       <c r="F102">
-        <v>-0.00787240072292745</v>
+        <v>-0.09038915335779391</v>
       </c>
       <c r="G102">
-        <v>0.0006649208171248794</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02845961401980454</v>
+      </c>
+      <c r="H102">
+        <v>0.01676120873778623</v>
+      </c>
+      <c r="I102">
+        <v>-0.04424168112242902</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01754563009838271</v>
+        <v>-0.03113638606559729</v>
       </c>
       <c r="C103">
-        <v>-0.0009474101084264897</v>
+        <v>0.001437084728330942</v>
       </c>
       <c r="D103">
-        <v>0.01078935149137134</v>
+        <v>-0.009386455915512107</v>
       </c>
       <c r="E103">
-        <v>-0.02479832666623424</v>
+        <v>-0.02041391825644438</v>
       </c>
       <c r="F103">
-        <v>-0.01208120531937465</v>
+        <v>-0.01930107437917968</v>
       </c>
       <c r="G103">
-        <v>0.01390716337369178</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01629202390285441</v>
+      </c>
+      <c r="H103">
+        <v>-0.01600432635627312</v>
+      </c>
+      <c r="I103">
+        <v>-0.02357221156480726</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
